--- a/TouchProbe/src/new.xlsx
+++ b/TouchProbe/src/new.xlsx
@@ -755,7 +755,7 @@
       <c r="G4" s="6" t="n"/>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>2111021</t>
+          <t>22070011</t>
         </is>
       </c>
       <c r="I4" s="8" t="n"/>
@@ -778,7 +778,7 @@
     <row customHeight="1" ht="21.75" r="7" s="19">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Cycle sequence: X+ X- Z+ Z- touch direction repeated 0.9times</t>
+          <t>Cycle sequence: X+ X- Z+ Z- touch direction repeated 5times</t>
         </is>
       </c>
       <c r="B7" s="1" t="n"/>
@@ -826,12 +826,12 @@
     <row customHeight="1" ht="21.75" r="9" s="19">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>R(0.9)=4Micron</t>
+          <t>R(5)=4Micron</t>
         </is>
       </c>
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="3" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="E9" s="3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="G9" s="3" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
@@ -866,12 +866,12 @@
     <row customHeight="1" ht="21.75" r="10" s="19">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>R(0.9)=4Micron</t>
+          <t>R(5)=4Micron</t>
         </is>
       </c>
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="12" t="n">
-        <v>1.175</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8" t="n"/>
       <c r="E10" s="8" t="n"/>
